--- a/1.原创-应用安全/安全需求.xlsx
+++ b/1.原创-应用安全/安全需求.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7130"/>
   </bookViews>
   <sheets>
     <sheet name="通用需求" sheetId="3" r:id="rId1"/>
     <sheet name="架构需求" sheetId="5" r:id="rId2"/>
     <sheet name="功能需求" sheetId="2" r:id="rId3"/>
     <sheet name="功能需求2" sheetId="4" r:id="rId4"/>
+    <sheet name="合规需求" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="287">
   <si>
     <t>安全需求分类</t>
   </si>
@@ -295,6 +296,15 @@
     <t>开发流程</t>
   </si>
   <si>
+    <t>安全防护</t>
+  </si>
+  <si>
+    <t>最小权限原则</t>
+  </si>
+  <si>
+    <t>it基础架构安全</t>
+  </si>
+  <si>
     <t>功能</t>
   </si>
   <si>
@@ -1045,6 +1055,15 @@
   </si>
   <si>
     <t>可选：定期检查文件是否被篡改，如通过计算哈希值（HASH）进行对比</t>
+  </si>
+  <si>
+    <t>等级保护要求</t>
+  </si>
+  <si>
+    <t>数据安全法要求</t>
+  </si>
+  <si>
+    <t>日志6个月</t>
   </si>
 </sst>
 </file>
@@ -2143,8 +2162,8 @@
   <sheetPr/>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -2358,10 +2377,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B5:C10"/>
+  <dimension ref="B5:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -2408,6 +2427,21 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2432,78 +2466,78 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2529,1112 +2563,1144 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" ht="30.75" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" ht="30" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" ht="30" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:1">
       <c r="A6" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" ht="45.75" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" ht="45.75" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" ht="60.75" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" ht="90.75" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" ht="45" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" ht="30" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" ht="30.75" spans="1:1">
       <c r="A14" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" ht="30" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" ht="30" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" ht="30.75" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" ht="15.75" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" ht="45.75" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" ht="30.75" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" ht="45.75" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" ht="45.75" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" ht="15.75" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" ht="30.75" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" ht="17" spans="1:1">
       <c r="A28" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" ht="15.75" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" ht="30.75" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" ht="30.75" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" ht="15.75" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" ht="30.75" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" ht="30.75" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" ht="30.75" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" ht="15.75" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" ht="30.75" spans="1:1">
       <c r="A37" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" ht="30.75" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" ht="45.75" spans="1:1">
       <c r="A39" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" ht="30.75" spans="1:1">
       <c r="A40" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" ht="30.75" spans="1:1">
       <c r="A41" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" ht="60.75" spans="1:1">
       <c r="A42" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" ht="15.75" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" ht="60.75" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" ht="15.75" spans="1:1">
       <c r="A45" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" ht="15.75" spans="1:1">
       <c r="A46" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" ht="15.75" spans="1:1">
       <c r="A47" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" ht="15.75" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" ht="90.75" spans="1:1">
       <c r="A49" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" ht="30.75" spans="1:1">
       <c r="A50" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" ht="17" spans="1:1">
       <c r="A51" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" ht="15.75" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" ht="45.75" spans="1:1">
       <c r="A53" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" ht="60.75" spans="1:1">
       <c r="A54" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" ht="15.75" spans="1:1">
       <c r="A55" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" ht="30.75" spans="1:1">
       <c r="A56" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" ht="30.75" spans="1:1">
       <c r="A57" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" ht="30.75" spans="1:1">
       <c r="A58" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" ht="15.75" spans="1:1">
       <c r="A59" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" ht="30.75" spans="1:1">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" ht="45.75" spans="1:1">
       <c r="A61" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" ht="45.75" spans="1:1">
       <c r="A62" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" ht="15.75" spans="1:1">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" ht="15.75" spans="1:1">
       <c r="A64" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" ht="30.75" spans="1:1">
       <c r="A65" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" ht="15.75" spans="1:1">
       <c r="A66" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" ht="15.75" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" ht="15.75" spans="1:1">
       <c r="A68" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" ht="15.75" spans="1:1">
       <c r="A69" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" ht="30.75" spans="1:1">
       <c r="A70" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" ht="15.75" spans="1:1">
       <c r="A71" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" ht="30.75" spans="1:1">
       <c r="A72" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" ht="30.75" spans="1:1">
       <c r="A73" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" ht="15.75" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" ht="15.75" spans="1:1">
       <c r="A75" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" ht="15.75" spans="1:1">
       <c r="A76" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" ht="45.75" spans="1:1">
       <c r="A77" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" ht="30.75" spans="1:1">
       <c r="A78" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" ht="15.75" spans="1:1">
       <c r="A79" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" ht="30.75" spans="1:1">
       <c r="A80" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" ht="15.75" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" ht="15.75" spans="1:1">
       <c r="A82" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" ht="15.75" spans="1:1">
       <c r="A83" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" ht="15.75" spans="1:1">
       <c r="A84" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" ht="30.75" spans="1:1">
       <c r="A85" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" ht="30.75" spans="1:1">
       <c r="A86" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" ht="45.75" spans="1:1">
       <c r="A87" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" ht="30.75" spans="1:1">
       <c r="A88" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" ht="60.75" spans="1:1">
       <c r="A89" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" ht="15.75" spans="1:1">
       <c r="A90" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91" ht="15.75" spans="1:1">
       <c r="A91" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" ht="45.75" spans="1:1">
       <c r="A92" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93" ht="60.75" spans="1:1">
       <c r="A93" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94" ht="30.75" spans="1:1">
       <c r="A94" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" ht="30.75" spans="1:1">
       <c r="A95" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96" ht="30.75" spans="1:1">
       <c r="A96" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97" ht="30.75" spans="1:1">
       <c r="A97" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" ht="15.75" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99" ht="45.75" spans="1:1">
       <c r="A99" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" ht="45.75" spans="1:1">
       <c r="A100" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" ht="45.75" spans="1:1">
       <c r="A101" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102" ht="30.75" spans="1:1">
       <c r="A102" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" ht="15.75" spans="1:1">
       <c r="A103" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104" ht="45.75" spans="1:1">
       <c r="A104" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105" ht="60.75" spans="1:1">
       <c r="A105" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106" ht="45.75" spans="1:1">
       <c r="A106" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" ht="15.75" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" ht="30.75" spans="1:1">
       <c r="A108" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109" ht="45.75" spans="1:1">
       <c r="A109" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" ht="30.75" spans="1:1">
       <c r="A110" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="111" ht="30.75" spans="1:1">
       <c r="A111" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="112" ht="30.75" spans="1:1">
       <c r="A112" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113" ht="45.75" spans="1:1">
       <c r="A113" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="114" ht="45.75" spans="1:1">
       <c r="A114" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="115" ht="30.75" spans="1:1">
       <c r="A115" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="116" ht="30.75" spans="1:1">
       <c r="A116" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="117" ht="45.75" spans="1:1">
       <c r="A117" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="118" ht="15.75" spans="1:1">
       <c r="A118" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="119" ht="30.75" spans="1:1">
       <c r="A119" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="120" ht="17" spans="1:1">
       <c r="A120" s="6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="121" ht="15.75" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="122" ht="45.75" spans="1:1">
       <c r="A122" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="123" ht="15.75" spans="1:1">
       <c r="A123" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="124" ht="45.75" spans="1:1">
       <c r="A124" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="125" ht="30.75" spans="1:1">
       <c r="A125" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126" ht="30.75" spans="1:1">
       <c r="A126" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="127" ht="30.75" spans="1:1">
       <c r="A127" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="128" ht="15.75" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="129" ht="30.75" spans="1:1">
       <c r="A129" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="130" ht="15.75" spans="1:1">
       <c r="A130" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="131" ht="15.75" spans="1:1">
       <c r="A131" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="132" ht="15.75" spans="1:1">
       <c r="A132" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="133" ht="30.75" spans="1:1">
       <c r="A133" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="134" ht="15.75" spans="1:1">
       <c r="A134" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="135" ht="15.75" spans="1:1">
       <c r="A135" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="136" ht="15.75" spans="1:1">
       <c r="A136" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="137" ht="15.75" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="138" ht="15.75" spans="1:1">
       <c r="A138" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="139" ht="15.75" spans="1:1">
       <c r="A139" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="140" ht="15.75" spans="1:1">
       <c r="A140" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="141" ht="15.75" spans="1:1">
       <c r="A141" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="142" ht="15.75" spans="1:1">
       <c r="A142" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="143" ht="15.75" spans="1:1">
       <c r="A143" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="144" ht="15.75" spans="1:1">
       <c r="A144" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="145" ht="17" spans="1:1">
       <c r="A145" s="6" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="146" ht="15.75" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="147" ht="30.75" spans="1:1">
       <c r="A147" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="148" ht="30.75" spans="1:1">
       <c r="A148" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="149" ht="30.75" spans="1:1">
       <c r="A149" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="150" ht="45.75" spans="1:1">
       <c r="A150" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="151" ht="60.75" spans="1:1">
       <c r="A151" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="152" ht="30.75" spans="1:1">
       <c r="A152" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="153" ht="15.75" spans="1:1">
       <c r="A153" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="154" ht="45.75" spans="1:1">
       <c r="A154" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="155" ht="15.75" spans="1:1">
       <c r="A155" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="156" ht="30.75" spans="1:1">
       <c r="A156" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="157" ht="30.75" spans="1:1">
       <c r="A157" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="158" ht="30.75" spans="1:1">
       <c r="A158" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="159" ht="30.75" spans="1:1">
       <c r="A159" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="160" ht="45.75" spans="1:1">
       <c r="A160" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="161" ht="15.75" spans="1:1">
       <c r="A161" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="162" ht="15.75" spans="1:1">
       <c r="A162" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="163" ht="45.75" spans="1:1">
       <c r="A163" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="164" ht="30.75" spans="1:1">
       <c r="A164" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="165" ht="30.75" spans="1:1">
       <c r="A165" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="166" ht="30.75" spans="1:1">
       <c r="A166" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="167" ht="15.75" spans="1:1">
       <c r="A167" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="168" ht="45.75" spans="1:1">
       <c r="A168" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="169" ht="45.75" spans="1:1">
       <c r="A169" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="170" ht="15.75" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="171" ht="30.75" spans="1:1">
       <c r="A171" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="172" ht="30.75" spans="1:1">
       <c r="A172" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="173" ht="30.75" spans="1:1">
       <c r="A173" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="174" ht="30.75" spans="1:1">
       <c r="A174" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="175" ht="15.75" spans="1:1">
       <c r="A175" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="176" ht="30.75" spans="1:1">
       <c r="A176" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="177" ht="45.75" spans="1:1">
       <c r="A177" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="178" ht="30.75" spans="1:1">
       <c r="A178" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="179" ht="30.75" spans="1:1">
       <c r="A179" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="180" ht="15.75" spans="1:1">
       <c r="A180" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="181" ht="15.75" spans="1:1">
       <c r="A181" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="182" ht="30.75" spans="1:1">
       <c r="A182" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="183" ht="15.75" spans="1:1">
       <c r="A183" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="184" ht="15.75" spans="1:1">
       <c r="A184" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="185" ht="17" spans="1:1">
       <c r="A185" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="186" ht="15.75" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="187" ht="15" spans="1:1">
       <c r="A187" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="188" ht="15" spans="1:1">
       <c r="A188" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="189" ht="15" spans="1:1">
       <c r="A189" s="4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="190" ht="30" spans="1:1">
       <c r="A190" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="191" ht="15" spans="1:1">
       <c r="A191" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="192" ht="15.75" spans="1:1">
       <c r="A192" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="193" ht="15" spans="1:1">
       <c r="A193" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="194" ht="15" spans="1:1">
       <c r="A194" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="195" ht="15" spans="1:1">
       <c r="A195" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="196" ht="30" spans="1:1">
       <c r="A196" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="197" ht="30" spans="1:1">
       <c r="A197" s="4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="198" ht="30" spans="1:1">
       <c r="A198" s="4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="199" ht="15" spans="1:1">
       <c r="A199" s="4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="200" ht="15.75" spans="1:1">
       <c r="A200" s="5" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="201" ht="15" spans="1:1">
       <c r="A201" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="202" ht="15" spans="1:1">
       <c r="A202" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="203" ht="45" spans="1:1">
       <c r="A203" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="204" ht="15" spans="1:1">
       <c r="A204" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="205" ht="15.75" spans="1:1">
       <c r="A205" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="206" ht="15" spans="1:1">
       <c r="A206" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="207" ht="30" spans="1:1">
       <c r="A207" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="208" ht="30" spans="1:1">
       <c r="A208" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="209" ht="30" spans="1:1">
       <c r="A209" s="4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="210" ht="45" spans="1:1">
       <c r="A210" s="4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="211" ht="30.75" spans="1:1">
       <c r="A211" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="212" ht="30.75" spans="1:1">
       <c r="A212" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="213" ht="30.75" spans="1:1">
       <c r="A213" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="214" ht="15.75" spans="1:1">
       <c r="A214" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="215" ht="15.75" spans="1:1">
       <c r="A215" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="216" ht="15.75" spans="1:1">
       <c r="A216" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="217" ht="30.75" spans="1:1">
       <c r="A217" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="218" ht="30.75" spans="1:1">
       <c r="A218" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="219" ht="15.75" spans="1:1">
       <c r="A219" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="220" ht="15.75" spans="1:1">
       <c r="A220" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="221" ht="30.75" spans="1:1">
       <c r="A221" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="222" ht="30.75" spans="1:1">
       <c r="A222" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
